--- a/ansystools/消息类型库.xlsx
+++ b/ansystools/消息类型库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文档\python\GoodToolPython\ansystools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B101DE9-2ABD-45E4-ACF8-E270C774E55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E56BC-0090-4286-9F57-7970B77158C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{51DFB1DC-FDA3-4F7B-85F5-DC8C1F41D699}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>patter</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -142,6 +139,10 @@
   </si>
   <si>
     <t>未知消息类型 patter是一定能匹配上 这个infotype一定要放在最后</t>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +509,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,146 +524,147 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>